--- a/Module_1_QuizFiles-July/Module 1_Quiz Data_Pareto.xlsx
+++ b/Module_1_QuizFiles-July/Module 1_Quiz Data_Pareto.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferryto\Documents\GitHub\DAT222x\Module_1_QuizFiles-July\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferry To\Documents\GitHub\DAT222x\Module_1_QuizFiles-July\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$19:$B$27</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$20:$A$27</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$20:$B$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$20:$A$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$B$20:$B$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +66,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,10 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +138,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Module 1_Quiz Data_Pareto2.xlsx]Sheet3!PivotTable18</c:name>
+    <c:name>[Module 1_Quiz Data_Pareto.xlsx]Sheet3!PivotTable18</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -505,6 +512,9 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{D3788EF0-70B1-48F7-A5A7-DCEA2A1954BD}">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:aggregation/>
@@ -1125,59 +1135,57 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="371">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="800"/>
+    <cs:bodyPr/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1186,14 +1194,20 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
@@ -1231,12 +1245,22 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1246,7 +1270,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1261,7 +1285,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1279,7 +1303,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1300,7 +1324,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1312,21 +1336,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1342,19 +1365,8 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="dk1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:downBar>
   <cs:dropLine>
@@ -1365,14 +1377,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1386,12 +1395,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1400,7 +1405,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1408,14 +1413,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1427,17 +1431,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1449,14 +1452,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1465,17 +1465,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1484,58 +1483,55 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -1551,26 +1547,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" cap="all" spc="100"/>
+    <cs:bodyPr/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:prstDash val="sysDash"/>
       </a:ln>
@@ -1581,10 +1573,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
@@ -1599,14 +1588,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -1614,19 +1595,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1673,15 +1652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1717,8 +1696,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2266950" y="3121025"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="2162174" y="3222625"/>
+              <a:ext cx="6543675" cy="7645400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1737,7 +1716,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-HK" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -2897,7 +2876,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F90F5865-5EB2-47ED-BF40-92DF689E1CFC}" name="PivotTable18" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F90F5865-5EB2-47ED-BF40-92DF689E1CFC}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -3273,155 +3252,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB89D78-61B9-4E35-BC1A-5D4B3E9DCCD8}">
-  <dimension ref="A3:B27"/>
+  <dimension ref="A3:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B27"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="B20">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f>SUM(B20:B27)</f>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>SUM(B25:B27)/371</f>
+        <v>0.77628032345013476</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A19:B27" xr:uid="{05A0B3F0-86E6-4C5B-B87B-ACD1C44C9E1D}">
+    <sortState ref="A20:B28">
+      <sortCondition ref="B19:B27"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A20:B27">
+    <sortCondition ref="A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3435,1867 +3435,1867 @@
       <selection sqref="A1:A372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>5</v>
       </c>
